--- a/Example_Output.xlsx
+++ b/Example_Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1793333333333333</v>
+        <v>0.1364583333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4973333333333333</v>
+        <v>0.7114583333333334</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.1923459383753501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.625</v>
+        <v>0.4651055806938159</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.3033333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5437500000000001</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3404761904761905</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5756235827664399</v>
+        <v>0.5922222222222222</v>
       </c>
     </row>
     <row r="9">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08541666666666665</v>
+        <v>0.1371212121212121</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5902056277056278</v>
       </c>
     </row>
     <row r="11">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4097916666666667</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6858333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2877083333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7135416666666666</v>
       </c>
     </row>
     <row r="15">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5275000000000001</v>
+        <v>0.05885416666666663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7377777777777779</v>
+        <v>0.5802083333333333</v>
       </c>
     </row>
     <row r="17">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2</v>
+        <v>0.7066666666666668</v>
       </c>
     </row>
     <row r="19">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -662,6 +662,72 @@
         <v>0.5</v>
       </c>
       <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5766666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.5</v>
       </c>
     </row>
